--- a/data/sysml2/21/result/ResponsePlanElement.xlsx
+++ b/data/sysml2/21/result/ResponsePlanElement.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1121,23 +1121,23 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1147,44 +1147,44 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>Firefighting</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1194,23 +1194,23 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>partSub</t>
+          <t>actionSub</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>PersonnalRescue</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ResponsePlanElement</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1229,7 +1229,7 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Firefighting</t>
+          <t>VehicleTowing</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PersonnalRescue</t>
+          <t>RoadCleaning</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1302,7 +1302,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>VehicleTowing</t>
+          <t>RoadRepair</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
@@ -1349,7 +1349,7 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -1370,7 +1370,7 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RoadCleaning</t>
+          <t>RoadControl</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -1396,30 +1396,30 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>def</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1429,44 +1429,44 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>RoadRepair</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1476,23 +1476,23 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>actionSub</t>
+          <t>partSub</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RoadControl</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ResponsePlanElement</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1872,6 +1872,53 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>partAssociate</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
